--- a/bokeh-app/data/site_domainV2.xlsx
+++ b/bokeh-app/data/site_domainV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365.sharepoint.com/teams/WHAMackTest/Shared Documents/Research/Innovation Ecosystems/Mapping PIE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxing/PycharmProjects/PennEcosystem/bokeh-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="965" documentId="13_ncr:1_{882F2D4F-872F-124D-9667-20AA458C3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07937B7B-639C-443B-AC5E-6EC19CB473B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFF27F-1DAD-9F47-8304-75929A31A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="728">
   <si>
     <t>url</t>
   </si>
@@ -1953,9 +1953,6 @@
   </si>
   <si>
     <t>Department of Pathology and Laboratory Medicine, Perelman School of Medicine</t>
-  </si>
-  <si>
-    <t>PC31</t>
   </si>
   <si>
     <t>Penn Center for Cancer Care Innovation</t>
@@ -2301,12 +2298,18 @@
   <si>
     <t>https://www.elp.upenn.edu/</t>
   </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>PC3I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,14 +2850,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="85.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="85.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="85.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>78</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>123</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>130</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>131</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>135</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>140</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>142</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>146</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>148</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>154</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>163</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>167</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>170</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>174</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>175</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>176</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>177</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>178</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>179</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>182</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>183</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>186</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>193</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>194</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>197</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>198</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>203</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>205</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>206</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>207</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>208</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>210</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>212</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>213</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>214</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>215</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>216</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>217</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>219</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>220</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>222</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>223</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>224</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>226</v>
       </c>
@@ -4691,7 +4694,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>227</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>229</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>230</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>231</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>233</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>234</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>235</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>236</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>237</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>238</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>239</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>240</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>241</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>242</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>243</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>244</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>245</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>246</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>247</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>250</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>251</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>252</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>253</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>254</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>255</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>256</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>257</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>258</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>259</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>260</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>261</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>262</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>263</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>264</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>265</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>266</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>267</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>268</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>269</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>270</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>271</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>273</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>274</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>275</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>276</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>277</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>278</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>279</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>280</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>281</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>282</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>284</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>285</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>286</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>287</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>288</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>289</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>290</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>292</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>293</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>294</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>295</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>296</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>297</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>298</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>299</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>300</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>301</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>302</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>303</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>304</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>305</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>306</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>307</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>308</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>309</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>310</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>311</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>312</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>313</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>314</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>315</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>316</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>317</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>318</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>319</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>320</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>321</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>322</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>323</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>324</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>325</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>326</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>327</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>328</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>329</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>330</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>331</v>
       </c>
@@ -5791,7 +5794,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>332</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>333</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>334</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>336</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>337</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>338</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>339</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>341</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>342</v>
       </c>
@@ -5901,7 +5904,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>343</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>344</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>345</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>346</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>347</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>348</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>349</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>350</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>351</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>352</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>353</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>354</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>355</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>356</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>357</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>358</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>360</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>361</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>362</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>363</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>364</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>365</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>366</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>367</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>368</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>369</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>370</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>371</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>372</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>373</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>374</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>375</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>376</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>377</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>378</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>379</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>380</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>381</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>382</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>383</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>384</v>
       </c>
@@ -6363,7 +6366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>385</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>386</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>387</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>388</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>389</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>390</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>391</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>392</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>393</v>
       </c>
@@ -6462,7 +6465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>394</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>395</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>396</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>397</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>398</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>399</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>400</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>401</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>402</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>403</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>404</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>405</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>406</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>407</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>408</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>410</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>411</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>412</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>413</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>414</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>415</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>416</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>417</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>418</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>419</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>420</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>421</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>422</v>
       </c>
@@ -6781,7 +6784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>423</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>425</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>426</v>
       </c>
@@ -6814,7 +6817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>427</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>428</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>429</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>430</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>431</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>432</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>433</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>434</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>435</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>436</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>437</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>438</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>439</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>440</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>441</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>442</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>443</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>444</v>
       </c>
@@ -7012,7 +7015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>445</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>446</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>448</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>449</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>451</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>452</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>453</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>454</v>
       </c>
@@ -7100,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>456</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>457</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>458</v>
       </c>
@@ -7133,7 +7136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>459</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>460</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>462</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>464</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>466</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>468</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>470</v>
       </c>
@@ -7210,7 +7213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>471</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>472</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>473</v>
       </c>
@@ -7275,13 +7278,13 @@
       <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>475</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>477</v>
       </c>
@@ -7303,7 +7306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>479</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>481</v>
       </c>
@@ -7325,7 +7328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="13" t="s">
         <v>483</v>
@@ -7334,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="13" t="s">
         <v>484</v>
@@ -7343,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="13" t="s">
         <v>485</v>
@@ -7352,7 +7355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="13" t="s">
         <v>486</v>
@@ -7361,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="13" t="s">
         <v>487</v>
@@ -7370,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="13" t="s">
         <v>488</v>
@@ -7379,7 +7382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>489</v>
       </c>
@@ -7390,7 +7393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>482</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="13" t="s">
         <v>485</v>
@@ -7410,7 +7413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="13" t="s">
         <v>487</v>
@@ -7419,7 +7422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="13" t="s">
         <v>488</v>
@@ -7428,7 +7431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="13" t="s">
         <v>490</v>
@@ -7437,7 +7440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>483</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
         <v>484</v>
@@ -7457,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="13" t="s">
         <v>485</v>
@@ -7466,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
         <v>487</v>
@@ -7475,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="13" t="s">
         <v>488</v>
@@ -7484,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>484</v>
       </c>
@@ -7495,7 +7498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="13" t="s">
         <v>483</v>
@@ -7504,7 +7507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="13" t="s">
         <v>485</v>
@@ -7513,7 +7516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="13" t="s">
         <v>491</v>
@@ -7522,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="13" t="s">
         <v>487</v>
@@ -7531,7 +7534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="13" t="s">
         <v>488</v>
@@ -7540,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>492</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="13" t="s">
         <v>491</v>
@@ -7560,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="13" t="s">
         <v>493</v>
@@ -7569,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="13" t="s">
         <v>494</v>
@@ -7578,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="13" t="s">
         <v>480</v>
@@ -7587,7 +7590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>478</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="13" t="s">
         <v>495</v>
@@ -7607,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>496</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="13" t="s">
         <v>497</v>
@@ -7627,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>498</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>485</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="13" t="s">
         <v>484</v>
@@ -7658,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="13" t="s">
         <v>491</v>
@@ -7667,7 +7670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="13" t="s">
         <v>499</v>
@@ -7676,7 +7679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="13" t="s">
         <v>500</v>
@@ -7685,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="13" t="s">
         <v>490</v>
@@ -7694,7 +7697,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>501</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>491</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="13" t="s">
         <v>483</v>
@@ -7725,7 +7728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="13" t="s">
         <v>484</v>
@@ -7734,7 +7737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="13" t="s">
         <v>478</v>
@@ -7743,7 +7746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" s="13" t="s">
         <v>485</v>
@@ -7752,7 +7755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
       <c r="B50" s="13" t="s">
         <v>487</v>
@@ -7761,7 +7764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="13" t="s">
         <v>499</v>
@@ -7770,7 +7773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="13" t="s">
         <v>488</v>
@@ -7779,7 +7782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="13" t="s">
         <v>503</v>
@@ -7788,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="13" t="s">
         <v>490</v>
@@ -7797,7 +7800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>486</v>
       </c>
@@ -7808,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="13" t="s">
         <v>504</v>
@@ -7817,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>487</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="13" t="s">
         <v>483</v>
@@ -7837,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="13" t="s">
         <v>484</v>
@@ -7846,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="13" t="s">
         <v>485</v>
@@ -7855,7 +7858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="13" t="s">
         <v>488</v>
@@ -7864,7 +7867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>505</v>
       </c>
@@ -7875,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>506</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>499</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
       <c r="B65" s="13" t="s">
         <v>483</v>
@@ -7906,7 +7909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="B66" s="13" t="s">
         <v>484</v>
@@ -7915,7 +7918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
       <c r="B67" s="13" t="s">
         <v>485</v>
@@ -7924,7 +7927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="23"/>
       <c r="B68" s="13" t="s">
         <v>487</v>
@@ -7933,7 +7936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="23"/>
       <c r="B69" s="13" t="s">
         <v>504</v>
@@ -7942,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="23"/>
       <c r="B70" s="13" t="s">
         <v>488</v>
@@ -7951,7 +7954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>507</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
       <c r="B72" s="13" t="s">
         <v>509</v>
@@ -7971,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
       <c r="B73" s="13" t="s">
         <v>494</v>
@@ -7980,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>504</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="23"/>
       <c r="B75" s="13" t="s">
         <v>483</v>
@@ -8000,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="23"/>
       <c r="B76" s="13" t="s">
         <v>484</v>
@@ -8009,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="23"/>
       <c r="B77" s="13" t="s">
         <v>485</v>
@@ -8018,7 +8021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
       <c r="B78" s="13" t="s">
         <v>486</v>
@@ -8027,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="23"/>
       <c r="B79" s="13" t="s">
         <v>487</v>
@@ -8036,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="23"/>
       <c r="B80" s="13" t="s">
         <v>488</v>
@@ -8045,7 +8048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>488</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="23"/>
       <c r="B82" s="13" t="s">
         <v>483</v>
@@ -8065,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="23"/>
       <c r="B83" s="13" t="s">
         <v>484</v>
@@ -8074,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="23"/>
       <c r="B84" s="13" t="s">
         <v>485</v>
@@ -8083,7 +8086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
       <c r="B85" s="13" t="s">
         <v>487</v>
@@ -8092,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>493</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="23"/>
       <c r="B87" s="13" t="s">
         <v>494</v>
@@ -8112,7 +8115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="23"/>
       <c r="B88" s="13" t="s">
         <v>480</v>
@@ -8121,7 +8124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="23"/>
       <c r="B89" s="13" t="s">
         <v>510</v>
@@ -8130,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="23"/>
       <c r="B90" s="13" t="s">
         <v>511</v>
@@ -8139,7 +8142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>494</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>480</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="23"/>
       <c r="B93" s="13" t="s">
         <v>484</v>
@@ -8170,7 +8173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="23"/>
       <c r="B94" s="13" t="s">
         <v>496</v>
@@ -8179,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="23"/>
       <c r="B95" s="13" t="s">
         <v>485</v>
@@ -8188,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
       <c r="B96" s="13" t="s">
         <v>506</v>
@@ -8197,7 +8200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="23"/>
       <c r="B97" s="13" t="s">
         <v>499</v>
@@ -8206,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="23"/>
       <c r="B98" s="13" t="s">
         <v>504</v>
@@ -8215,7 +8218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="23"/>
       <c r="B99" s="13" t="s">
         <v>512</v>
@@ -8224,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="23"/>
       <c r="B100" s="13" t="s">
         <v>493</v>
@@ -8233,7 +8236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="23"/>
       <c r="B101" s="13" t="s">
         <v>494</v>
@@ -8242,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="23"/>
       <c r="B102" s="13" t="s">
         <v>497</v>
@@ -8251,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="23"/>
       <c r="B103" s="13" t="s">
         <v>511</v>
@@ -8260,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="23"/>
       <c r="B104" s="13" t="s">
         <v>513</v>
@@ -8269,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
         <v>503</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="23"/>
       <c r="B106" s="13" t="s">
         <v>483</v>
@@ -8289,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="23"/>
       <c r="B107" s="13" t="s">
         <v>484</v>
@@ -8298,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="23"/>
       <c r="B108" s="13" t="s">
         <v>485</v>
@@ -8307,7 +8310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="13" t="s">
         <v>491</v>
@@ -8316,7 +8319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="23"/>
       <c r="B110" s="13" t="s">
         <v>487</v>
@@ -8325,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="23"/>
       <c r="B111" s="13" t="s">
         <v>488</v>
@@ -8334,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
         <v>510</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="23"/>
       <c r="B113" s="13" t="s">
         <v>514</v>
@@ -8354,7 +8357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="23"/>
       <c r="B114" s="13" t="s">
         <v>499</v>
@@ -8363,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="23"/>
       <c r="B115" s="13" t="s">
         <v>504</v>
@@ -8372,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="23"/>
       <c r="B116" s="13" t="s">
         <v>502</v>
@@ -8381,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>515</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
       <c r="B118" s="13" t="s">
         <v>493</v>
@@ -8401,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
       <c r="B119" s="13" t="s">
         <v>494</v>
@@ -8410,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
       <c r="B120" s="13" t="s">
         <v>517</v>
@@ -8419,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
         <v>497</v>
       </c>
@@ -8430,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
       <c r="B122" s="13" t="s">
         <v>496</v>
@@ -8439,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
       <c r="B123" s="13" t="s">
         <v>509</v>
@@ -8448,7 +8451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
       <c r="B124" s="13" t="s">
         <v>491</v>
@@ -8457,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="23"/>
       <c r="B125" s="13" t="s">
         <v>506</v>
@@ -8466,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="23"/>
       <c r="B126" s="13" t="s">
         <v>493</v>
@@ -8475,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
       <c r="B127" s="13" t="s">
         <v>519</v>
@@ -8484,7 +8487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
       <c r="B128" s="13" t="s">
         <v>480</v>
@@ -8493,7 +8496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>511</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>520</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>502</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
         <v>521</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
       <c r="B133" s="13" t="s">
         <v>515</v>
@@ -8546,7 +8549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="s">
         <v>500</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="23"/>
       <c r="B135" s="13" t="s">
         <v>483</v>
@@ -8566,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="23"/>
       <c r="B136" s="13" t="s">
         <v>484</v>
@@ -8575,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="23"/>
       <c r="B137" s="13" t="s">
         <v>485</v>
@@ -8584,7 +8587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="23"/>
       <c r="B138" s="13" t="s">
         <v>487</v>
@@ -8593,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="23"/>
       <c r="B139" s="13" t="s">
         <v>488</v>
@@ -8602,7 +8605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="s">
         <v>513</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="23"/>
       <c r="B141" s="13" t="s">
         <v>483</v>
@@ -8622,7 +8625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="23"/>
       <c r="B142" s="13" t="s">
         <v>484</v>
@@ -8631,7 +8634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="23"/>
       <c r="B143" s="13" t="s">
         <v>485</v>
@@ -8640,7 +8643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="23"/>
       <c r="B144" s="13" t="s">
         <v>487</v>
@@ -8649,7 +8652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="23"/>
       <c r="B145" s="13" t="s">
         <v>488</v>
@@ -8658,7 +8661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
         <v>522</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="23"/>
       <c r="B147" s="13" t="s">
         <v>521</v>
@@ -8678,7 +8681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="23"/>
       <c r="B148" s="13" t="s">
         <v>523</v>
@@ -8687,7 +8690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="s">
         <v>523</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="23"/>
       <c r="B150" s="13" t="s">
         <v>483</v>
@@ -8707,7 +8710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="23"/>
       <c r="B151" s="13" t="s">
         <v>484</v>
@@ -8716,7 +8719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="23"/>
       <c r="B152" s="13" t="s">
         <v>485</v>
@@ -8725,7 +8728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="23"/>
       <c r="B153" s="13" t="s">
         <v>491</v>
@@ -8734,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="23"/>
       <c r="B154" s="13" t="s">
         <v>487</v>
@@ -8743,7 +8746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="23"/>
       <c r="B155" s="13" t="s">
         <v>499</v>
@@ -8752,7 +8755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="23"/>
       <c r="B156" s="13" t="s">
         <v>488</v>
@@ -8761,7 +8764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="23"/>
       <c r="B157" s="13" t="s">
         <v>490</v>
@@ -8770,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="s">
         <v>524</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="23"/>
       <c r="B159" s="13" t="s">
         <v>483</v>
@@ -8790,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="23"/>
       <c r="B160" s="13" t="s">
         <v>487</v>
@@ -8799,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
         <v>490</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="23"/>
       <c r="B162" s="13" t="s">
         <v>523</v>
@@ -8819,7 +8822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>525</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
         <v>517</v>
       </c>
@@ -8841,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="23"/>
       <c r="B165" s="13" t="s">
         <v>493</v>
@@ -8850,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="23"/>
       <c r="B166" s="13" t="s">
         <v>522</v>
@@ -8861,11 +8864,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A149:A157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="A140:A145"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A74:A80"/>
@@ -8878,18 +8888,11 @@
     <mergeCell ref="A121:A128"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="A149:A157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A164:A166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8904,13 +8907,13 @@
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>526</v>
       </c>
@@ -8921,7 +8924,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>477</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>479</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="13" t="s">
         <v>507</v>
@@ -8952,7 +8955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>481</v>
       </c>
@@ -8963,7 +8966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="13" t="s">
         <v>483</v>
@@ -8972,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="13" t="s">
         <v>484</v>
@@ -8981,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="13" t="s">
         <v>485</v>
@@ -8990,7 +8993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="13" t="s">
         <v>486</v>
@@ -8999,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="13" t="s">
         <v>487</v>
@@ -9008,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="13" t="s">
         <v>488</v>
@@ -9017,7 +9020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="13" t="s">
         <v>523</v>
@@ -9026,7 +9029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>489</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="13" t="s">
         <v>480</v>
@@ -9046,7 +9049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="13" t="s">
         <v>521</v>
@@ -9055,7 +9058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>516</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>482</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
         <v>485</v>
@@ -9086,7 +9089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="13" t="s">
         <v>487</v>
@@ -9095,7 +9098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
         <v>488</v>
@@ -9104,7 +9107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="13" t="s">
         <v>523</v>
@@ -9113,7 +9116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="13" t="s">
         <v>490</v>
@@ -9122,7 +9125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>483</v>
       </c>
@@ -9133,7 +9136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="13" t="s">
         <v>484</v>
@@ -9142,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="13" t="s">
         <v>485</v>
@@ -9151,7 +9154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="13" t="s">
         <v>487</v>
@@ -9160,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="13" t="s">
         <v>488</v>
@@ -9169,7 +9172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="13" t="s">
         <v>523</v>
@@ -9178,7 +9181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>484</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="13" t="s">
         <v>483</v>
@@ -9198,7 +9201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="13" t="s">
         <v>485</v>
@@ -9207,7 +9210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="13" t="s">
         <v>491</v>
@@ -9216,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="13" t="s">
         <v>487</v>
@@ -9225,7 +9228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="13" t="s">
         <v>488</v>
@@ -9234,7 +9237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="13" t="s">
         <v>523</v>
@@ -9243,7 +9246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>527</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>492</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="13" t="s">
         <v>478</v>
@@ -9274,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="13" t="s">
         <v>491</v>
@@ -9283,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="13" t="s">
         <v>505</v>
@@ -9292,7 +9295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="13" t="s">
         <v>529</v>
@@ -9301,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="13" t="s">
         <v>507</v>
@@ -9310,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="13" t="s">
         <v>493</v>
@@ -9319,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="13" t="s">
         <v>530</v>
@@ -9328,7 +9331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
       <c r="B45" s="13" t="s">
         <v>494</v>
@@ -9337,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="13" t="s">
         <v>480</v>
@@ -9346,7 +9349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="13" t="s">
         <v>521</v>
@@ -9355,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="13" t="s">
         <v>531</v>
@@ -9364,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>478</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
       <c r="B50" s="13" t="s">
         <v>495</v>
@@ -9384,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="13" t="s">
         <v>532</v>
@@ -9393,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>496</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="13" t="s">
         <v>478</v>
@@ -9413,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="13" t="s">
         <v>497</v>
@@ -9422,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="13" t="s">
         <v>521</v>
@@ -9431,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>534</v>
       </c>
@@ -9442,7 +9445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="13" t="s">
         <v>535</v>
@@ -9451,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>495</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>536</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>498</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="13" t="s">
         <v>480</v>
@@ -9493,7 +9496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>485</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
       <c r="B63" s="13" t="s">
         <v>484</v>
@@ -9513,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
       <c r="B64" s="13" t="s">
         <v>491</v>
@@ -9522,7 +9525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
       <c r="B65" s="13" t="s">
         <v>499</v>
@@ -9531,7 +9534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="B66" s="13" t="s">
         <v>521</v>
@@ -9540,7 +9543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
       <c r="B67" s="13" t="s">
         <v>500</v>
@@ -9549,7 +9552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="23"/>
       <c r="B68" s="13" t="s">
         <v>523</v>
@@ -9558,7 +9561,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="23"/>
       <c r="B69" s="13" t="s">
         <v>490</v>
@@ -9567,7 +9570,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>501</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>514</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>491</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
       <c r="B73" s="13" t="s">
         <v>483</v>
@@ -9609,7 +9612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="23"/>
       <c r="B74" s="13" t="s">
         <v>484</v>
@@ -9618,7 +9621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="23"/>
       <c r="B75" s="13" t="s">
         <v>478</v>
@@ -9627,7 +9630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="23"/>
       <c r="B76" s="13" t="s">
         <v>485</v>
@@ -9636,7 +9639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="23"/>
       <c r="B77" s="13" t="s">
         <v>487</v>
@@ -9645,7 +9648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
       <c r="B78" s="13" t="s">
         <v>499</v>
@@ -9654,7 +9657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="23"/>
       <c r="B79" s="13" t="s">
         <v>488</v>
@@ -9663,7 +9666,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="23"/>
       <c r="B80" s="13" t="s">
         <v>503</v>
@@ -9672,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="23"/>
       <c r="B81" s="13" t="s">
         <v>523</v>
@@ -9681,7 +9684,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="23"/>
       <c r="B82" s="13" t="s">
         <v>490</v>
@@ -9690,7 +9693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>486</v>
       </c>
@@ -9701,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="23"/>
       <c r="B84" s="13" t="s">
         <v>504</v>
@@ -9710,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
       <c r="B85" s="13" t="s">
         <v>523</v>
@@ -9719,7 +9722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>487</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="23"/>
       <c r="B87" s="13" t="s">
         <v>483</v>
@@ -9739,7 +9742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="23"/>
       <c r="B88" s="13" t="s">
         <v>484</v>
@@ -9748,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="23"/>
       <c r="B89" s="13" t="s">
         <v>485</v>
@@ -9757,7 +9760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="23"/>
       <c r="B90" s="13" t="s">
         <v>488</v>
@@ -9766,7 +9769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
       <c r="B91" s="13" t="s">
         <v>523</v>
@@ -9775,7 +9778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>505</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="23"/>
       <c r="B93" s="13" t="s">
         <v>493</v>
@@ -9795,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>506</v>
       </c>
@@ -9806,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>499</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
       <c r="B96" s="13" t="s">
         <v>483</v>
@@ -9826,7 +9829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="23"/>
       <c r="B97" s="13" t="s">
         <v>484</v>
@@ -9835,7 +9838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="23"/>
       <c r="B98" s="13" t="s">
         <v>485</v>
@@ -9844,7 +9847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="23"/>
       <c r="B99" s="13" t="s">
         <v>487</v>
@@ -9853,7 +9856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="23"/>
       <c r="B100" s="13" t="s">
         <v>504</v>
@@ -9862,7 +9865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="23"/>
       <c r="B101" s="13" t="s">
         <v>488</v>
@@ -9871,7 +9874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="23"/>
       <c r="B102" s="13" t="s">
         <v>523</v>
@@ -9880,7 +9883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>529</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="23"/>
       <c r="B104" s="13" t="s">
         <v>521</v>
@@ -9900,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
         <v>507</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="23"/>
       <c r="B106" s="13" t="s">
         <v>528</v>
@@ -9920,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="23"/>
       <c r="B107" s="13" t="s">
         <v>533</v>
@@ -9929,7 +9932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="23"/>
       <c r="B108" s="13" t="s">
         <v>509</v>
@@ -9938,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="13" t="s">
         <v>505</v>
@@ -9947,7 +9950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="23"/>
       <c r="B110" s="13" t="s">
         <v>494</v>
@@ -9956,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
         <v>504</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="23"/>
       <c r="B112" s="13" t="s">
         <v>483</v>
@@ -9976,7 +9979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="23"/>
       <c r="B113" s="13" t="s">
         <v>484</v>
@@ -9985,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="23"/>
       <c r="B114" s="13" t="s">
         <v>485</v>
@@ -9994,7 +9997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="23"/>
       <c r="B115" s="13" t="s">
         <v>486</v>
@@ -10003,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="23"/>
       <c r="B116" s="13" t="s">
         <v>487</v>
@@ -10012,7 +10015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="23"/>
       <c r="B117" s="13" t="s">
         <v>488</v>
@@ -10021,7 +10024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
       <c r="B118" s="13" t="s">
         <v>523</v>
@@ -10030,7 +10033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
         <v>488</v>
       </c>
@@ -10041,7 +10044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
       <c r="B120" s="13" t="s">
         <v>483</v>
@@ -10050,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
       <c r="B121" s="13" t="s">
         <v>484</v>
@@ -10059,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
       <c r="B122" s="13" t="s">
         <v>485</v>
@@ -10068,7 +10071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
       <c r="B123" s="13" t="s">
         <v>487</v>
@@ -10077,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
       <c r="B124" s="13" t="s">
         <v>523</v>
@@ -10086,7 +10089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>512</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
         <v>493</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
       <c r="B127" s="13" t="s">
         <v>529</v>
@@ -10117,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
       <c r="B128" s="13" t="s">
         <v>507</v>
@@ -10126,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="23"/>
       <c r="B129" s="13" t="s">
         <v>494</v>
@@ -10135,7 +10138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
       <c r="B130" s="13" t="s">
         <v>480</v>
@@ -10144,7 +10147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
       <c r="B131" s="13" t="s">
         <v>510</v>
@@ -10153,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="23"/>
       <c r="B132" s="13" t="s">
         <v>511</v>
@@ -10162,7 +10165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
       <c r="B133" s="13" t="s">
         <v>521</v>
@@ -10171,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>494</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>537</v>
       </c>
@@ -10193,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="s">
         <v>480</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="23"/>
       <c r="B137" s="13" t="s">
         <v>481</v>
@@ -10213,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="23"/>
       <c r="B138" s="13" t="s">
         <v>533</v>
@@ -10222,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="23"/>
       <c r="B139" s="13" t="s">
         <v>489</v>
@@ -10231,7 +10234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="23"/>
       <c r="B140" s="13" t="s">
         <v>538</v>
@@ -10240,7 +10243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="23"/>
       <c r="B141" s="13" t="s">
         <v>484</v>
@@ -10249,7 +10252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="23"/>
       <c r="B142" s="13" t="s">
         <v>539</v>
@@ -10258,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="23"/>
       <c r="B143" s="13" t="s">
         <v>527</v>
@@ -10267,7 +10270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="23"/>
       <c r="B144" s="13" t="s">
         <v>496</v>
@@ -10276,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="23"/>
       <c r="B145" s="13" t="s">
         <v>485</v>
@@ -10285,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="23"/>
       <c r="B146" s="13" t="s">
         <v>514</v>
@@ -10294,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="23"/>
       <c r="B147" s="13" t="s">
         <v>505</v>
@@ -10303,7 +10306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="23"/>
       <c r="B148" s="13" t="s">
         <v>506</v>
@@ -10312,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="23"/>
       <c r="B149" s="13" t="s">
         <v>499</v>
@@ -10321,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="23"/>
       <c r="B150" s="13" t="s">
         <v>507</v>
@@ -10330,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="23"/>
       <c r="B151" s="13" t="s">
         <v>504</v>
@@ -10339,7 +10342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="23"/>
       <c r="B152" s="13" t="s">
         <v>512</v>
@@ -10348,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="23"/>
       <c r="B153" s="13" t="s">
         <v>493</v>
@@ -10357,7 +10360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="23"/>
       <c r="B154" s="13" t="s">
         <v>530</v>
@@ -10366,7 +10369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="23"/>
       <c r="B155" s="13" t="s">
         <v>494</v>
@@ -10375,7 +10378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="23"/>
       <c r="B156" s="13" t="s">
         <v>497</v>
@@ -10384,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="23"/>
       <c r="B157" s="13" t="s">
         <v>511</v>
@@ -10393,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="23"/>
       <c r="B158" s="13" t="s">
         <v>520</v>
@@ -10402,7 +10405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="23"/>
       <c r="B159" s="13" t="s">
         <v>521</v>
@@ -10411,7 +10414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="23"/>
       <c r="B160" s="13" t="s">
         <v>513</v>
@@ -10420,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="23"/>
       <c r="B161" s="13" t="s">
         <v>531</v>
@@ -10429,7 +10432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="23"/>
       <c r="B162" s="13" t="s">
         <v>523</v>
@@ -10438,7 +10441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
         <v>503</v>
       </c>
@@ -10449,7 +10452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="23"/>
       <c r="B164" s="13" t="s">
         <v>483</v>
@@ -10458,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="23"/>
       <c r="B165" s="13" t="s">
         <v>484</v>
@@ -10467,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="23"/>
       <c r="B166" s="13" t="s">
         <v>485</v>
@@ -10476,7 +10479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="23"/>
       <c r="B167" s="13" t="s">
         <v>491</v>
@@ -10485,7 +10488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="23"/>
       <c r="B168" s="13" t="s">
         <v>487</v>
@@ -10494,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="23"/>
       <c r="B169" s="13" t="s">
         <v>488</v>
@@ -10503,7 +10506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="23"/>
       <c r="B170" s="13" t="s">
         <v>523</v>
@@ -10512,7 +10515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
         <v>510</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="23"/>
       <c r="B172" s="13" t="s">
         <v>514</v>
@@ -10532,7 +10535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="23"/>
       <c r="B173" s="13" t="s">
         <v>499</v>
@@ -10541,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="23"/>
       <c r="B174" s="13" t="s">
         <v>504</v>
@@ -10550,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="23"/>
       <c r="B175" s="13" t="s">
         <v>502</v>
@@ -10559,7 +10562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
         <v>515</v>
       </c>
@@ -10570,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="23"/>
       <c r="B177" s="13" t="s">
         <v>493</v>
@@ -10579,7 +10582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="23"/>
       <c r="B178" s="13" t="s">
         <v>530</v>
@@ -10588,7 +10591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="23"/>
       <c r="B179" s="13" t="s">
         <v>494</v>
@@ -10597,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="23"/>
       <c r="B180" s="13" t="s">
         <v>521</v>
@@ -10606,7 +10609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="23"/>
       <c r="B181" s="13" t="s">
         <v>517</v>
@@ -10615,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="23" t="s">
         <v>497</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="23"/>
       <c r="B183" s="13" t="s">
         <v>518</v>
@@ -10635,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="23"/>
       <c r="B184" s="13" t="s">
         <v>489</v>
@@ -10644,7 +10647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="23"/>
       <c r="B185" s="13" t="s">
         <v>538</v>
@@ -10653,7 +10656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="23"/>
       <c r="B186" s="13" t="s">
         <v>539</v>
@@ -10662,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="23"/>
       <c r="B187" s="13" t="s">
         <v>527</v>
@@ -10671,7 +10674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="23"/>
       <c r="B188" s="13" t="s">
         <v>496</v>
@@ -10680,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="23"/>
       <c r="B189" s="13" t="s">
         <v>534</v>
@@ -10689,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="23"/>
       <c r="B190" s="13" t="s">
         <v>498</v>
@@ -10698,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="23"/>
       <c r="B191" s="13" t="s">
         <v>501</v>
@@ -10707,7 +10710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="23"/>
       <c r="B192" s="13" t="s">
         <v>509</v>
@@ -10716,7 +10719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="23"/>
       <c r="B193" s="13" t="s">
         <v>491</v>
@@ -10725,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="23"/>
       <c r="B194" s="13" t="s">
         <v>505</v>
@@ -10734,7 +10737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="23"/>
       <c r="B195" s="13" t="s">
         <v>506</v>
@@ -10743,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="23"/>
       <c r="B196" s="13" t="s">
         <v>529</v>
@@ -10752,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="23"/>
       <c r="B197" s="13" t="s">
         <v>507</v>
@@ -10761,7 +10764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="23"/>
       <c r="B198" s="13" t="s">
         <v>493</v>
@@ -10770,7 +10773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="23"/>
       <c r="B199" s="13" t="s">
         <v>519</v>
@@ -10779,7 +10782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="23"/>
       <c r="B200" s="13" t="s">
         <v>530</v>
@@ -10788,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="23"/>
       <c r="B201" s="13" t="s">
         <v>480</v>
@@ -10797,7 +10800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="23"/>
       <c r="B202" s="13" t="s">
         <v>520</v>
@@ -10806,7 +10809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="23"/>
       <c r="B203" s="13" t="s">
         <v>521</v>
@@ -10815,7 +10818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="23"/>
       <c r="B204" s="13" t="s">
         <v>535</v>
@@ -10824,7 +10827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="23"/>
       <c r="B205" s="13" t="s">
         <v>531</v>
@@ -10833,7 +10836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="23"/>
       <c r="B206" s="13" t="s">
         <v>523</v>
@@ -10842,7 +10845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="23"/>
       <c r="B207" s="13" t="s">
         <v>524</v>
@@ -10851,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
         <v>511</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="23"/>
       <c r="B209" s="13" t="s">
         <v>480</v>
@@ -10871,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="s">
         <v>520</v>
       </c>
@@ -10882,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="23"/>
       <c r="B211" s="13" t="s">
         <v>480</v>
@@ -10891,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="s">
         <v>502</v>
       </c>
@@ -10902,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="23"/>
       <c r="B213" s="13" t="s">
         <v>501</v>
@@ -10911,7 +10914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="23" t="s">
         <v>521</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="23"/>
       <c r="B215" s="13" t="s">
         <v>515</v>
@@ -10931,7 +10934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
         <v>500</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="23"/>
       <c r="B217" s="13" t="s">
         <v>483</v>
@@ -10951,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="23"/>
       <c r="B218" s="13" t="s">
         <v>484</v>
@@ -10960,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="23"/>
       <c r="B219" s="13" t="s">
         <v>485</v>
@@ -10969,7 +10972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="23"/>
       <c r="B220" s="13" t="s">
         <v>487</v>
@@ -10978,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="23"/>
       <c r="B221" s="13" t="s">
         <v>488</v>
@@ -10987,7 +10990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="23"/>
       <c r="B222" s="13" t="s">
         <v>523</v>
@@ -10996,7 +10999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>535</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="23" t="s">
         <v>513</v>
       </c>
@@ -11018,7 +11021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="23"/>
       <c r="B225" s="13" t="s">
         <v>483</v>
@@ -11027,7 +11030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="23"/>
       <c r="B226" s="13" t="s">
         <v>484</v>
@@ -11036,7 +11039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="23"/>
       <c r="B227" s="13" t="s">
         <v>485</v>
@@ -11045,7 +11048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="23"/>
       <c r="B228" s="13" t="s">
         <v>487</v>
@@ -11054,7 +11057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="23"/>
       <c r="B229" s="13" t="s">
         <v>488</v>
@@ -11063,7 +11066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="23"/>
       <c r="B230" s="13" t="s">
         <v>523</v>
@@ -11072,7 +11075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="23" t="s">
         <v>522</v>
       </c>
@@ -11083,7 +11086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="23"/>
       <c r="B232" s="13" t="s">
         <v>521</v>
@@ -11092,7 +11095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="23"/>
       <c r="B233" s="13" t="s">
         <v>523</v>
@@ -11101,7 +11104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>531</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="23" t="s">
         <v>523</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="23"/>
       <c r="B236" s="13" t="s">
         <v>483</v>
@@ -11132,7 +11135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="23"/>
       <c r="B237" s="13" t="s">
         <v>484</v>
@@ -11141,7 +11144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="23"/>
       <c r="B238" s="13" t="s">
         <v>485</v>
@@ -11150,7 +11153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="23"/>
       <c r="B239" s="13" t="s">
         <v>491</v>
@@ -11159,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="23"/>
       <c r="B240" s="13" t="s">
         <v>487</v>
@@ -11168,7 +11171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="23"/>
       <c r="B241" s="13" t="s">
         <v>499</v>
@@ -11177,7 +11180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="23"/>
       <c r="B242" s="13" t="s">
         <v>488</v>
@@ -11186,7 +11189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="23"/>
       <c r="B243" s="13" t="s">
         <v>490</v>
@@ -11195,7 +11198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="23" t="s">
         <v>524</v>
       </c>
@@ -11206,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="23"/>
       <c r="B245" s="13" t="s">
         <v>483</v>
@@ -11215,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="23"/>
       <c r="B246" s="13" t="s">
         <v>487</v>
@@ -11224,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="23"/>
       <c r="B247" s="13" t="s">
         <v>523</v>
@@ -11233,7 +11236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="23" t="s">
         <v>490</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="23"/>
       <c r="B249" s="13" t="s">
         <v>523</v>
@@ -11253,7 +11256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="s">
         <v>525</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="23"/>
       <c r="B251" s="13" t="s">
         <v>480</v>
@@ -11273,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="23" t="s">
         <v>517</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="23"/>
       <c r="B253" s="13" t="s">
         <v>493</v>
@@ -11293,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="23"/>
       <c r="B254" s="13" t="s">
         <v>521</v>
@@ -11302,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="23"/>
       <c r="B255" s="13" t="s">
         <v>522</v>
@@ -11313,12 +11316,27 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A222"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A235:A243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A136:A162"/>
+    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="A49:A51"/>
@@ -11331,27 +11349,12 @@
     <mergeCell ref="A86:A91"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A95:A102"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A126:A133"/>
-    <mergeCell ref="A136:A162"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A222"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A235:A243"/>
-    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11361,21 +11364,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>547</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>548</v>
+        <v>726</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -11416,7 +11419,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>549</v>
       </c>
@@ -11441,7 +11444,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>192</v>
       </c>
@@ -11467,7 +11470,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>424</v>
       </c>
@@ -11492,7 +11495,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>450</v>
       </c>
@@ -11512,6 +11515,9 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="M5" s="12"/>
@@ -11520,7 +11526,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -11545,7 +11551,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>465</v>
       </c>
@@ -11570,7 +11576,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>562</v>
       </c>
@@ -11590,6 +11596,9 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
       <c r="M8" s="12"/>
@@ -11598,7 +11607,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>565</v>
       </c>
@@ -11618,6 +11627,9 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
       <c r="M9" s="12"/>
@@ -11626,7 +11638,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>228</v>
       </c>
@@ -11651,7 +11663,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -11676,7 +11688,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>149</v>
       </c>
@@ -11701,7 +11713,7 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -11726,7 +11738,7 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>143</v>
       </c>
@@ -11751,7 +11763,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>578</v>
       </c>
@@ -11771,6 +11783,9 @@
         <v>1</v>
       </c>
       <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="M15" s="12"/>
@@ -11779,7 +11794,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -11804,7 +11819,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -11829,7 +11844,7 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -11854,7 +11869,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -11869,6 +11884,9 @@
       </c>
       <c r="E19">
         <v>85</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -11879,7 +11897,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -11899,6 +11917,9 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
       <c r="M20" s="12"/>
@@ -11907,7 +11928,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>125</v>
       </c>
@@ -11932,7 +11953,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>463</v>
       </c>
@@ -11957,7 +11978,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
@@ -11977,6 +11998,9 @@
         <v>1</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="M23" s="12"/>
@@ -11985,7 +12009,7 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>162</v>
       </c>
@@ -12010,7 +12034,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>232</v>
       </c>
@@ -12035,7 +12059,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -12055,6 +12079,9 @@
         <v>1</v>
       </c>
       <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
       <c r="M26" s="12"/>
@@ -12063,7 +12090,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>172</v>
       </c>
@@ -12089,7 +12116,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>40</v>
       </c>
@@ -12117,7 +12144,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>218</v>
       </c>
@@ -12145,7 +12172,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" customHeight="1">
+    <row r="30" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>4</v>
       </c>
@@ -12165,6 +12192,9 @@
         <v>1</v>
       </c>
       <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
       <c r="M30" s="12"/>
@@ -12173,7 +12203,7 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>225</v>
       </c>
@@ -12201,7 +12231,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -12226,7 +12256,7 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>283</v>
       </c>
@@ -12251,7 +12281,7 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>110</v>
       </c>
@@ -12279,15 +12309,15 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -12305,15 +12335,15 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>621</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="D36">
         <v>28</v>
@@ -12334,15 +12364,15 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>623</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>624</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -12360,15 +12390,15 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>625</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>626</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -12376,7 +12406,9 @@
       <c r="E38">
         <v>4</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38">
         <v>1</v>
@@ -12387,15 +12419,15 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -12412,15 +12444,15 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>629</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>630</v>
       </c>
       <c r="D40">
         <v>19</v>
@@ -12437,15 +12469,15 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>631</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>632</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -12462,15 +12494,15 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>633</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>634</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -12487,15 +12519,15 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>635</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>636</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -12512,15 +12544,15 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>637</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>638</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -12528,7 +12560,8 @@
       <c r="E44">
         <v>36</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="10"/>
+      <c r="H44">
         <v>1</v>
       </c>
       <c r="M44" s="12"/>
@@ -12537,15 +12570,15 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>157</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>639</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>640</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -12562,15 +12595,15 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>447</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -12582,6 +12615,9 @@
         <v>1</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="K46">
         <v>1</v>
       </c>
       <c r="M46" s="12"/>
@@ -12590,15 +12626,15 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>643</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>644</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -12615,15 +12651,15 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>467</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>646</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -12640,15 +12676,15 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>455</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>647</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>648</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -12660,6 +12696,9 @@
         <v>1</v>
       </c>
       <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="K49">
         <v>1</v>
       </c>
       <c r="M49" s="12"/>
@@ -12668,15 +12707,15 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>335</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>649</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>650</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -12693,15 +12732,15 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>653</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -12713,6 +12752,9 @@
         <v>1</v>
       </c>
       <c r="G51" s="10">
+        <v>1</v>
+      </c>
+      <c r="K51">
         <v>1</v>
       </c>
       <c r="M51" s="12"/>
@@ -12721,15 +12763,15 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>655</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -12746,15 +12788,15 @@
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>656</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>657</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -12771,15 +12813,15 @@
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>658</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>659</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -12799,15 +12841,15 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>660</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>661</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -12819,6 +12861,9 @@
         <v>1</v>
       </c>
       <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="K55">
         <v>1</v>
       </c>
       <c r="M55" s="12"/>
@@ -12827,15 +12872,15 @@
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>662</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>663</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -12853,15 +12898,15 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>664</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>665</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -12873,6 +12918,9 @@
         <v>1</v>
       </c>
       <c r="G57" s="10">
+        <v>1</v>
+      </c>
+      <c r="K57">
         <v>1</v>
       </c>
       <c r="M57" s="12"/>
@@ -12881,15 +12929,15 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>666</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>667</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -12906,15 +12954,15 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>669</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>670</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -12932,15 +12980,15 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>671</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>672</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -12957,15 +13005,15 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>673</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>674</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -12983,15 +13031,15 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>474</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>675</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>676</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -13009,15 +13057,15 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -13028,119 +13076,125 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="21" t="s">
+      <c r="B65" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="19" t="s">
+      <c r="B66" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="19" t="s">
+      <c r="B67" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="19" t="s">
+      <c r="B68" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="19" t="s">
+      <c r="B69" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="19" t="s">
+      <c r="B70" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="19" t="s">
+      <c r="B71" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>703</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -13234,107 +13288,107 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B4" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" t="s">
         <v>710</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
         <v>712</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B10" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" t="s">
         <v>716</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B12" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B12" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -13359,18 +13413,18 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView zoomScale="174" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -13387,7 +13441,7 @@
         <v>544</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>546</v>
@@ -13405,7 +13459,7 @@
         <v>544</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>546</v>
@@ -13417,7 +13471,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>549</v>
       </c>
@@ -13434,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>424</v>
       </c>
@@ -13451,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>450</v>
       </c>
@@ -13474,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>86</v>
       </c>
@@ -13490,7 +13544,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -13500,7 +13554,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>465</v>
       </c>
@@ -13517,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -13545,7 +13599,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>228</v>
       </c>
@@ -13562,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -13579,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>149</v>
       </c>
@@ -13596,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -13613,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -13630,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>248</v>
       </c>
@@ -13654,7 +13708,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -13671,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -13694,7 +13748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -13717,7 +13771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>232</v>
       </c>
@@ -13734,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
@@ -13757,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="9" customFormat="1">
+    <row r="19" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>218</v>
       </c>
@@ -13789,7 +13843,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" s="9" customFormat="1">
+    <row r="20" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -13807,7 +13861,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -13819,7 +13873,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>157</v>
       </c>
@@ -13836,7 +13890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>447</v>
       </c>
@@ -13859,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1">
+    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>467</v>
       </c>
@@ -13887,7 +13941,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1">
+    <row r="24" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>79</v>
       </c>
@@ -13919,7 +13973,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -13936,9 +13990,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -13954,7 +14008,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -13966,9 +14020,9 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" s="9" customFormat="1">
+    <row r="27" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B27" s="9">
         <v>2</v>
@@ -13980,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>451</v>
       </c>
@@ -14003,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>452</v>
       </c>
@@ -14026,9 +14080,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="9" customFormat="1">
+    <row r="30" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -14084,15 +14138,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F6009573C9F8854B83D7448A38279762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e90c78c34856bbe6bbf1d104583a019b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac390577-9eb5-4095-8dac-1dc5b890459f" xmlns:ns3="67616322-77c9-465c-9e9a-997885f44337" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dacc3e2345104c7ad4391e3b1eb2d62" ns2:_="" ns3:_="">
     <xsd:import namespace="ac390577-9eb5-4095-8dac-1dc5b890459f"/>
@@ -14315,10 +14360,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="67616322-77c9-465c-9e9a-997885f44337" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac390577-9eb5-4095-8dac-1dc5b890459f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44068B53-A13D-4DC6-8C9C-5A82D0B3FB12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD72898-22F4-4E7B-A049-3A22BD123C67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac390577-9eb5-4095-8dac-1dc5b890459f"/>
+    <ds:schemaRef ds:uri="67616322-77c9-465c-9e9a-997885f44337"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD72898-22F4-4E7B-A049-3A22BD123C67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44068B53-A13D-4DC6-8C9C-5A82D0B3FB12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CCF40C9-BE58-4D69-8E11-1AF980E80829}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67616322-77c9-465c-9e9a-997885f44337"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac390577-9eb5-4095-8dac-1dc5b890459f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>